--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -1014,7 +1014,11 @@
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1052,21 +1056,9 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1132,15 +1124,19 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1203,12 +1199,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1280,20 +1276,15 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1362,17 +1353,18 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1437,15 +1429,19 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1517,12 +1513,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1593,12 +1589,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1675,20 +1671,15 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1745,12 +1736,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1823,18 +1814,17 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1899,19 +1889,18 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora,
-Until noon</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1966,9 +1955,22 @@
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2021,9 +2023,23 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora,
+Until noon</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -2069,11 +2085,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2120,11 +2132,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2165,7 +2173,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2208,7 +2216,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>515 E JEFFERSON ST</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2251,7 +2259,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HwMixMJfHf32</t>
+          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2307,7 +2315,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>515 E JEFFERSON ST</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2352,7 +2360,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HwMixMJfHf32</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2406,21 +2418,13 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2473,16 +2477,8 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -2539,15 +2535,19 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2604,12 +2604,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2664,12 +2664,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2737,12 +2737,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2809,12 +2809,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2886,12 +2886,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2956,8 +2956,16 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -3019,8 +3027,16 @@
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -1016,7 +1016,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+          <t>4:30 am meet for Sarah &amp; Lori at Meinke meet Camry oil change</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -3930,7 +3930,7 @@
       <c r="K65" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Gray Van</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -1016,7 +1016,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4:30 am meet for Sarah &amp; Lori at Meinke meet Camry oil change</t>
+          <t>4:30 am meet for Sarah &amp; Lori at Meineke meet Camry oil change</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -3368,7 +3368,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3471,9 +3471,21 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3546,11 +3558,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3583,7 +3591,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3622,7 +3630,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>KELLEY #56, WALWORTH MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3657,7 +3665,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>680 KENOSHA ST</t>
+          <t>KELLEY #56, WALWORTH MOBIL</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3704,7 +3712,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NtNpv4sYreFZ3bXy9</t>
+          <t>680 KENOSHA ST</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3747,7 +3755,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/NtNpv4sYreFZ3bXy9</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3790,7 +3798,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL office </t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3831,7 +3839,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL office </t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -3869,22 +3881,9 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -3919,18 +3918,18 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store,
+Camry 3, Equip</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3980,15 +3979,20 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4036,12 +4040,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4079,12 +4083,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4120,8 +4124,16 @@
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -2826,7 +2826,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3216,21 +3216,9 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3331,7 +3319,11 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3384,7 +3376,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3439,7 +3431,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3494,7 +3486,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3537,7 +3529,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3568,7 +3560,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3601,11 +3593,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3639,9 +3627,21 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3676,19 +3676,15 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3723,12 +3719,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3766,12 +3762,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3809,12 +3805,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3852,12 +3848,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3891,12 +3887,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3939,12 +3935,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3998,16 +3994,8 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -1305,10 +1305,14 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1391,7 +1395,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1467,14 +1471,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1542,13 +1542,12 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1623,10 +1622,15 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1700,14 +1704,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3,
-Supv Rx</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1776,14 +1778,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1851,7 +1849,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1915,7 +1913,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1983,7 +1981,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2056,12 +2054,14 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver,
+Camry 3,
+Supv Rx</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Madison Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Madison Schedule.xlsx
@@ -1305,14 +1305,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1395,7 +1391,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1471,10 +1467,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1542,12 +1542,13 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Driver, 1/2
+Red Camry</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1622,15 +1623,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1704,12 +1700,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver,
+Camry 3,
+Supv Rx</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1778,10 +1776,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1849,7 +1851,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1913,7 +1915,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1981,7 +1983,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2054,14 +2056,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3,
-Supv Rx</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
